--- a/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
+++ b/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T14:04:08+01:00</t>
+    <t>2024-01-08T21:51:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
+++ b/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
+++ b/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
+++ b/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
+++ b/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This value set includes content from SNOMED CT, which is copyright © 2002+ International Health Terminology Standards Development Organisation (IHTSDO), and distributed by agreement between IHTSDO and HL7. Implementer use of SNOMED CT is not covered by this agreement</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -376,14 +379,16 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -405,7 +410,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -413,42 +418,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
+++ b/fhir/core/ValueSet-dk-core-TechniquesSCTCodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -108,19 +108,10 @@
     <t>761996005</t>
   </si>
   <si>
-    <t>Estimation technique (qualifier value)</t>
-  </si>
-  <si>
     <t>733985002</t>
   </si>
   <si>
-    <t>Reported (qualifier value)</t>
-  </si>
-  <si>
     <t>272391002</t>
-  </si>
-  <si>
-    <t>Measurement technique (qualifier value)</t>
   </si>
   <si>
     <t/>
@@ -420,40 +411,34 @@
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
